--- a/Ansteuerung-Wellenerzeugung.xlsx
+++ b/Ansteuerung-Wellenerzeugung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxdetering/Documents/Programming/Python/surfpark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD95DC-B937-C041-9B92-B973B67F31B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24673E60-BBF0-924B-BB66-E1D88DA480A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{BAE3404C-5F14-E141-B5A7-59F72D297C9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="59">
   <si>
     <t>0.00</t>
   </si>
@@ -155,26 +155,71 @@
     <t>Kammer 29</t>
   </si>
   <si>
-    <t>Totzeit 1</t>
-  </si>
-  <si>
-    <t>Ausdehnung</t>
-  </si>
-  <si>
-    <t>Totzeit 2</t>
-  </si>
-  <si>
-    <t>Entleerung</t>
-  </si>
-  <si>
     <t>Wellenphase</t>
+  </si>
+  <si>
+    <t>Ansteuerung Wellenerzeugung</t>
+  </si>
+  <si>
+    <t>Die nachfolgende Tabelle enthält die Dauern der Wellenphasen der verschiedenen Kammern.</t>
+  </si>
+  <si>
+    <t>Eine Welle ist in vier Phasen aufgeteilt:</t>
+  </si>
+  <si>
+    <t>Entspannung (Entleerung)</t>
+  </si>
+  <si>
+    <t>Halten (Totzeit 2)</t>
+  </si>
+  <si>
+    <t>Schub (Ausdehnung)</t>
+  </si>
+  <si>
+    <t>Die Phasendauern sind dabei in Sekunden anzugeben.</t>
+  </si>
+  <si>
+    <t>Verzögerung (Totzeit 1)</t>
+  </si>
+  <si>
+    <t>Ein beliebiges Wellenset kann erzeugt werden, indem mehrere Wellen hintereinander geschaltet werden.</t>
+  </si>
+  <si>
+    <t>Für jede Wellen im Wellenset sind dabei wieder vier Spalten für alle Wellenkammern anzugeben, die die Wellen vollständig charakterisieren.</t>
+  </si>
+  <si>
+    <t>Wichtig: Die Tabelle mit dem Phasenplan muss in Excel auch als Tabelle formatiert sein!</t>
+  </si>
+  <si>
+    <t>W2- Ausdehnung</t>
+  </si>
+  <si>
+    <t>W2 - Verzögerung</t>
+  </si>
+  <si>
+    <t>W2 - Totzeit</t>
+  </si>
+  <si>
+    <t>W2- Entleerung</t>
+  </si>
+  <si>
+    <t>W1 - Entleerung</t>
+  </si>
+  <si>
+    <t>W1 - Totzeit</t>
+  </si>
+  <si>
+    <t>W1 - Ausdehnung</t>
+  </si>
+  <si>
+    <t>W1 - Verzögerung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,13 +240,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,19 +283,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{476C5F82-5C92-1948-A32C-CE174B9E0855}">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="5" xr9:uid="{476C5F82-5C92-1948-A32C-CE174B9E0855}">
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" size="2"/>
-      <tableStyleElement type="secondColumnStripe" size="2"/>
+      <tableStyleElement type="secondColumnStripe" size="2" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -243,22 +370,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25AF5654-586F-F241-A77D-55F64AE9CA62}" name="Wellenzeitplan" displayName="Wellenzeitplan" ref="A8:E44" totalsRowShown="0">
-  <autoFilter ref="A8:E44" xr:uid="{25AF5654-586F-F241-A77D-55F64AE9CA62}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25AF5654-586F-F241-A77D-55F64AE9CA62}" name="Wellenzeitplan" displayName="Wellenzeitplan" ref="A13:I49" totalsRowShown="0">
+  <autoFilter ref="A13:I49" xr:uid="{25AF5654-586F-F241-A77D-55F64AE9CA62}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{41D74D4E-BF91-B646-97F9-15910486448B}" name="Wellenphase"/>
-    <tableColumn id="2" xr3:uid="{5677AA7F-1510-3A4C-A4C2-07BC512AC0EF}" name="Totzeit 1"/>
-    <tableColumn id="3" xr3:uid="{1EFE14DC-1F63-8040-AA75-D3E0D1DEEE35}" name="Ausdehnung"/>
-    <tableColumn id="4" xr3:uid="{CC146BBF-BA56-9141-B655-AC296F4A5DE1}" name="Totzeit 2"/>
-    <tableColumn id="5" xr3:uid="{A66A3598-5BE0-CA41-9CEB-66F9A7E359D2}" name="Entleerung"/>
+    <tableColumn id="2" xr3:uid="{5677AA7F-1510-3A4C-A4C2-07BC512AC0EF}" name="W1 - Verzögerung"/>
+    <tableColumn id="3" xr3:uid="{1EFE14DC-1F63-8040-AA75-D3E0D1DEEE35}" name="W1 - Ausdehnung"/>
+    <tableColumn id="4" xr3:uid="{CC146BBF-BA56-9141-B655-AC296F4A5DE1}" name="W1 - Totzeit"/>
+    <tableColumn id="5" xr3:uid="{A66A3598-5BE0-CA41-9CEB-66F9A7E359D2}" name="W1 - Entleerung"/>
+    <tableColumn id="6" xr3:uid="{1BB71F9A-37E1-6841-B259-9984B8C23A86}" name="W2 - Verzögerung"/>
+    <tableColumn id="7" xr3:uid="{FC31D0DF-63F7-FA4F-B906-2F62028434EC}" name="W2- Ausdehnung"/>
+    <tableColumn id="8" xr3:uid="{F0AE9D09-D78F-E144-8780-021C02A7D41D}" name="W2 - Totzeit"/>
+    <tableColumn id="9" xr3:uid="{BF25FAF3-DEF2-5E4B-9052-ABE0B11E0E6A}" name="W2- Entleerung"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
@@ -559,27 +694,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D607816-A4CC-D54D-A09E-5B60C03F8584}">
-  <dimension ref="A3:AK44"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="37" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -617,7 +775,9 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -655,7 +815,9 @@
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -693,7 +855,9 @@
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -728,111 +892,133 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+    </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
+      <c r="A11" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -844,12 +1030,24 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -861,503 +1059,1011 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>32</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>31</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Ansteuerung-Wellenerzeugung.xlsx
+++ b/Ansteuerung-Wellenerzeugung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxdetering/Documents/Programming/Python/surfpark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24673E60-BBF0-924B-BB66-E1D88DA480A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E0FA34-4B83-3D49-8C80-30E907FCBA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{BAE3404C-5F14-E141-B5A7-59F72D297C9C}"/>
   </bookViews>
@@ -167,21 +167,9 @@
     <t>Eine Welle ist in vier Phasen aufgeteilt:</t>
   </si>
   <si>
-    <t>Entspannung (Entleerung)</t>
-  </si>
-  <si>
-    <t>Halten (Totzeit 2)</t>
-  </si>
-  <si>
-    <t>Schub (Ausdehnung)</t>
-  </si>
-  <si>
     <t>Die Phasendauern sind dabei in Sekunden anzugeben.</t>
   </si>
   <si>
-    <t>Verzögerung (Totzeit 1)</t>
-  </si>
-  <si>
     <t>Ein beliebiges Wellenset kann erzeugt werden, indem mehrere Wellen hintereinander geschaltet werden.</t>
   </si>
   <si>
@@ -191,28 +179,40 @@
     <t>Wichtig: Die Tabelle mit dem Phasenplan muss in Excel auch als Tabelle formatiert sein!</t>
   </si>
   <si>
-    <t>W2- Ausdehnung</t>
-  </si>
-  <si>
-    <t>W2 - Verzögerung</t>
-  </si>
-  <si>
-    <t>W2 - Totzeit</t>
-  </si>
-  <si>
-    <t>W2- Entleerung</t>
-  </si>
-  <si>
-    <t>W1 - Entleerung</t>
-  </si>
-  <si>
-    <t>W1 - Totzeit</t>
-  </si>
-  <si>
-    <t>W1 - Ausdehnung</t>
-  </si>
-  <si>
-    <t>W1 - Verzögerung</t>
+    <t>Verzögerung (zeitlicher Abstand zur vorherigen Welle</t>
+  </si>
+  <si>
+    <t>Ausdehnung (Einlassventil wird für diese Dauer geöffnet)</t>
+  </si>
+  <si>
+    <t>Totzeit (Einlassventil wird geschlossen und gehalten)</t>
+  </si>
+  <si>
+    <t>Entleerung (Auslassventil wird für diese Dauer geöffnet)</t>
+  </si>
+  <si>
+    <t>W2-Entleerung</t>
+  </si>
+  <si>
+    <t>W2-Totzeit</t>
+  </si>
+  <si>
+    <t>W2-Ausdehnung</t>
+  </si>
+  <si>
+    <t>W2-Verzögerung</t>
+  </si>
+  <si>
+    <t>W1-Entleerung</t>
+  </si>
+  <si>
+    <t>W1-Totzeit</t>
+  </si>
+  <si>
+    <t>W1-Ausdehnung</t>
+  </si>
+  <si>
+    <t>W1-Verzögerung</t>
   </si>
 </sst>
 </file>
@@ -287,10 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,14 +384,14 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{41D74D4E-BF91-B646-97F9-15910486448B}" name="Wellenphase"/>
-    <tableColumn id="2" xr3:uid="{5677AA7F-1510-3A4C-A4C2-07BC512AC0EF}" name="W1 - Verzögerung"/>
-    <tableColumn id="3" xr3:uid="{1EFE14DC-1F63-8040-AA75-D3E0D1DEEE35}" name="W1 - Ausdehnung"/>
-    <tableColumn id="4" xr3:uid="{CC146BBF-BA56-9141-B655-AC296F4A5DE1}" name="W1 - Totzeit"/>
-    <tableColumn id="5" xr3:uid="{A66A3598-5BE0-CA41-9CEB-66F9A7E359D2}" name="W1 - Entleerung"/>
-    <tableColumn id="6" xr3:uid="{1BB71F9A-37E1-6841-B259-9984B8C23A86}" name="W2 - Verzögerung"/>
-    <tableColumn id="7" xr3:uid="{FC31D0DF-63F7-FA4F-B906-2F62028434EC}" name="W2- Ausdehnung"/>
-    <tableColumn id="8" xr3:uid="{F0AE9D09-D78F-E144-8780-021C02A7D41D}" name="W2 - Totzeit"/>
-    <tableColumn id="9" xr3:uid="{BF25FAF3-DEF2-5E4B-9052-ABE0B11E0E6A}" name="W2- Entleerung"/>
+    <tableColumn id="2" xr3:uid="{5677AA7F-1510-3A4C-A4C2-07BC512AC0EF}" name="W1-Verzögerung"/>
+    <tableColumn id="3" xr3:uid="{1EFE14DC-1F63-8040-AA75-D3E0D1DEEE35}" name="W1-Ausdehnung"/>
+    <tableColumn id="4" xr3:uid="{CC146BBF-BA56-9141-B655-AC296F4A5DE1}" name="W1-Totzeit"/>
+    <tableColumn id="5" xr3:uid="{A66A3598-5BE0-CA41-9CEB-66F9A7E359D2}" name="W1-Entleerung"/>
+    <tableColumn id="6" xr3:uid="{1BB71F9A-37E1-6841-B259-9984B8C23A86}" name="W2-Verzögerung"/>
+    <tableColumn id="7" xr3:uid="{FC31D0DF-63F7-FA4F-B906-2F62028434EC}" name="W2-Ausdehnung"/>
+    <tableColumn id="8" xr3:uid="{F0AE9D09-D78F-E144-8780-021C02A7D41D}" name="W2-Totzeit"/>
+    <tableColumn id="9" xr3:uid="{BF25FAF3-DEF2-5E4B-9052-ABE0B11E0E6A}" name="W2-Entleerung"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -696,33 +696,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D607816-A4CC-D54D-A09E-5B60C03F8584}">
   <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="37" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -776,7 +769,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -816,7 +809,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -856,7 +849,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -894,7 +887,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -935,7 +928,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -976,16 +969,16 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1004,16 +997,16 @@
         <v>55</v>
       </c>
       <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
